--- a/Code/Results/Cases/Case_3_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.695206907030808</v>
+        <v>1.004940474577324</v>
       </c>
       <c r="C2">
-        <v>0.5631182183797705</v>
+        <v>0.4825389026844107</v>
       </c>
       <c r="D2">
-        <v>0.06907383987112325</v>
+        <v>0.02643071087631199</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.334458593960413</v>
+        <v>0.5153490970544112</v>
       </c>
       <c r="G2">
-        <v>0.2285004575514904</v>
+        <v>0.3569480634963256</v>
       </c>
       <c r="H2">
-        <v>0.2045361059075077</v>
+        <v>0.5256821673189833</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1754116265243084</v>
+        <v>0.2811251149203358</v>
       </c>
       <c r="M2">
-        <v>0.4412772187929619</v>
+        <v>0.2330888419672235</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8627905256941091</v>
+        <v>1.703102221541783</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.345944291809417</v>
+        <v>0.8941744969332603</v>
       </c>
       <c r="C3">
-        <v>0.5301605010888295</v>
+        <v>0.4720568239987415</v>
       </c>
       <c r="D3">
-        <v>0.06113226942634498</v>
+        <v>0.02378328808529773</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3143398196861966</v>
+        <v>0.5164416939215926</v>
       </c>
       <c r="G3">
-        <v>0.2169376426979142</v>
+        <v>0.359363130363711</v>
       </c>
       <c r="H3">
-        <v>0.205566411423078</v>
+        <v>0.5310352935070384</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1635935365906391</v>
+        <v>0.2802765279211528</v>
       </c>
       <c r="M3">
-        <v>0.3845393384798612</v>
+        <v>0.2163400783165415</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8400500791558301</v>
+        <v>1.719153169090816</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.131591663845711</v>
+        <v>0.8260309281195077</v>
       </c>
       <c r="C4">
-        <v>0.5101074089855615</v>
+        <v>0.4656974902366073</v>
       </c>
       <c r="D4">
-        <v>0.05624769471940283</v>
+        <v>0.02214867525215425</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3029303014800888</v>
+        <v>0.517552616872706</v>
       </c>
       <c r="G4">
-        <v>0.2107226296627118</v>
+        <v>0.3612184767894604</v>
       </c>
       <c r="H4">
-        <v>0.2067566989974097</v>
+        <v>0.5346372054094033</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1566275646047117</v>
+        <v>0.2799190178454296</v>
       </c>
       <c r="M4">
-        <v>0.3498121285409468</v>
+        <v>0.2060930472340203</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8291204578153781</v>
+        <v>1.73044817578824</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.04423968199427</v>
+        <v>0.7982303255030274</v>
       </c>
       <c r="C5">
-        <v>0.5019792543135964</v>
+        <v>0.4631256482954313</v>
       </c>
       <c r="D5">
-        <v>0.05425467935530293</v>
+        <v>0.02148031582805032</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2985048787731301</v>
+        <v>0.5181158488529221</v>
       </c>
       <c r="G5">
-        <v>0.2083995449856673</v>
+        <v>0.3620679796257988</v>
       </c>
       <c r="H5">
-        <v>0.2073762568460253</v>
+        <v>0.536184222067476</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1538580385956152</v>
+        <v>0.2798144830987823</v>
       </c>
       <c r="M5">
-        <v>0.3356827920218279</v>
+        <v>0.2019268114732284</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8253899868564361</v>
+        <v>1.73541246270257</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.029734140002745</v>
+        <v>0.793612206135208</v>
       </c>
       <c r="C6">
-        <v>0.5006321500726614</v>
+        <v>0.4626997923608087</v>
       </c>
       <c r="D6">
-        <v>0.05392357796585401</v>
+        <v>0.02136920114585905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2977831979744394</v>
+        <v>0.5182160443390842</v>
       </c>
       <c r="G6">
-        <v>0.2080260920198498</v>
+        <v>0.3622146753341795</v>
       </c>
       <c r="H6">
-        <v>0.2074870953168926</v>
+        <v>0.5364458864375905</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1534022290449784</v>
+        <v>0.2797996117472721</v>
       </c>
       <c r="M6">
-        <v>0.3333378207011037</v>
+        <v>0.201235593561286</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8248131248019916</v>
+        <v>1.736258595542495</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.130413643467705</v>
+        <v>0.8256561247314949</v>
       </c>
       <c r="C7">
-        <v>0.509997616163588</v>
+        <v>0.4656627254965997</v>
       </c>
       <c r="D7">
-        <v>0.05622082688832108</v>
+        <v>0.02213967054142074</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3028697285296644</v>
+        <v>0.5175597654985609</v>
       </c>
       <c r="G7">
-        <v>0.210690467699564</v>
+        <v>0.3612295554773937</v>
       </c>
       <c r="H7">
-        <v>0.2067645173364951</v>
+        <v>0.5346577483312913</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1565899387256238</v>
+        <v>0.279917441378835</v>
       </c>
       <c r="M7">
-        <v>0.3496214920432905</v>
+        <v>0.2060368210532673</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8290672687834615</v>
+        <v>1.730513662991228</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.574745135547232</v>
+        <v>0.9667770031406349</v>
       </c>
       <c r="C8">
-        <v>0.5517148886587506</v>
+        <v>0.4789089670633473</v>
       </c>
       <c r="D8">
-        <v>0.06633708546547012</v>
+        <v>0.02551978993834325</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.327317682844793</v>
+        <v>0.5156344063210483</v>
       </c>
       <c r="G8">
-        <v>0.2243220751866417</v>
+        <v>0.3577033303084605</v>
       </c>
       <c r="H8">
-        <v>0.2047720805817974</v>
+        <v>0.5274625210838906</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1712740984643943</v>
+        <v>0.2807986014307033</v>
       </c>
       <c r="M8">
-        <v>0.4216877867596835</v>
+        <v>0.227306387956375</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8542959004217607</v>
+        <v>1.708337465146641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.448125890955907</v>
+        <v>1.242393225368119</v>
       </c>
       <c r="C9">
-        <v>0.6350971057168238</v>
+        <v>0.5054796365589311</v>
       </c>
       <c r="D9">
-        <v>0.08612833667408637</v>
+        <v>0.03207453065946453</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3833739897336983</v>
+        <v>0.5153573558636708</v>
       </c>
       <c r="G9">
-        <v>0.2586833772651929</v>
+        <v>0.3537546424750033</v>
       </c>
       <c r="H9">
-        <v>0.2055616304864998</v>
+        <v>0.515853573020074</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2025585022935132</v>
+        <v>0.283823075510746</v>
       </c>
       <c r="M9">
-        <v>0.5641493542649698</v>
+        <v>0.2692983298655847</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9297002872729934</v>
+        <v>1.676298025455779</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.093027038020239</v>
+        <v>1.444134200086921</v>
       </c>
       <c r="C10">
-        <v>0.6975089239387557</v>
+        <v>0.5253475363590212</v>
       </c>
       <c r="D10">
-        <v>0.100671856565711</v>
+        <v>0.03684371631094052</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4304286987819097</v>
+        <v>0.5172971896808676</v>
       </c>
       <c r="G10">
-        <v>0.2894780866215712</v>
+        <v>0.3526771481808879</v>
       </c>
       <c r="H10">
-        <v>0.2094043209133645</v>
+        <v>0.5088504726383434</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2273341770440283</v>
+        <v>0.2868349655775688</v>
       </c>
       <c r="M10">
-        <v>0.6699158671015724</v>
+        <v>0.300312526951366</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.003649513281175</v>
+        <v>1.659773462064067</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.387590170226474</v>
+        <v>1.535734062548954</v>
       </c>
       <c r="C11">
-        <v>0.7261984361903444</v>
+        <v>0.5344579474733848</v>
       </c>
       <c r="D11">
-        <v>0.10729631737874</v>
+        <v>0.03900290146631846</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4533282825657992</v>
+        <v>0.5186473942796397</v>
       </c>
       <c r="G11">
-        <v>0.3049051837899128</v>
+        <v>0.3525862403917301</v>
       </c>
       <c r="H11">
-        <v>0.2119555846716565</v>
+        <v>0.5059962482691418</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2390592076991567</v>
+        <v>0.2883765762648238</v>
       </c>
       <c r="M11">
-        <v>0.7183681935885247</v>
+        <v>0.3144552422845237</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.041968366710222</v>
+        <v>1.653786932576452</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.499347333699518</v>
+        <v>1.570394090440459</v>
       </c>
       <c r="C12">
-        <v>0.7371093920346823</v>
+        <v>0.537917923425681</v>
       </c>
       <c r="D12">
-        <v>0.1098067114963612</v>
+        <v>0.03981900429999996</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4622340837970569</v>
+        <v>0.5192261079309972</v>
       </c>
       <c r="G12">
-        <v>0.3109700124128096</v>
+        <v>0.3526094814497469</v>
       </c>
       <c r="H12">
-        <v>0.2130456680439465</v>
+        <v>0.5049631271392059</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2435702985229256</v>
+        <v>0.2889849826865003</v>
       </c>
       <c r="M12">
-        <v>0.7367730897372056</v>
+        <v>0.3198154202498245</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.057209661898185</v>
+        <v>1.651740686057792</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.475268294883449</v>
+        <v>1.562930658555047</v>
       </c>
       <c r="C13">
-        <v>0.7347573711442692</v>
+        <v>0.5371723137722881</v>
       </c>
       <c r="D13">
-        <v>0.1092659602220181</v>
+        <v>0.03964331090632811</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4603053203602911</v>
+        <v>0.519098470581234</v>
       </c>
       <c r="G13">
-        <v>0.3096536126895586</v>
+        <v>0.3526019073435265</v>
       </c>
       <c r="H13">
-        <v>0.2128052439772858</v>
+        <v>0.5051835056465421</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2425954978001812</v>
+        <v>0.2888528564097754</v>
       </c>
       <c r="M13">
-        <v>0.7328065887661026</v>
+        <v>0.3186608081487847</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.05389370902472</v>
+        <v>1.652171555250533</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.396779995734619</v>
+        <v>1.53858611322056</v>
       </c>
       <c r="C14">
-        <v>0.7270951238654959</v>
+        <v>0.5347424021347251</v>
       </c>
       <c r="D14">
-        <v>0.1075028080816764</v>
+        <v>0.03907007374215254</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4540561583207179</v>
+        <v>0.5186936533052631</v>
       </c>
       <c r="G14">
-        <v>0.3053995599696293</v>
+        <v>0.3525869952893856</v>
       </c>
       <c r="H14">
-        <v>0.2120427311911897</v>
+        <v>0.5059102963349176</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2394288791587513</v>
+        <v>0.2884261367260734</v>
       </c>
       <c r="M14">
-        <v>0.7198811819340776</v>
+        <v>0.3148961359822309</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.043207285155034</v>
+        <v>1.653614159468873</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.348732583596245</v>
+        <v>1.52367082148487</v>
       </c>
       <c r="C15">
-        <v>0.7224080030458424</v>
+        <v>0.5332553109918194</v>
       </c>
       <c r="D15">
-        <v>0.1064230874351182</v>
+        <v>0.03871874830961985</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4502594665073758</v>
+        <v>0.5184544757750587</v>
       </c>
       <c r="G15">
-        <v>0.3028234456688637</v>
+        <v>0.352585378530236</v>
       </c>
       <c r="H15">
-        <v>0.2115920768986399</v>
+        <v>0.5063616912484719</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2374986667784924</v>
+        <v>0.2881679655769034</v>
       </c>
       <c r="M15">
-        <v>0.7119716857155822</v>
+        <v>0.3125907613936718</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.036758498829982</v>
+        <v>1.654526559276576</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.073804089773262</v>
+        <v>1.438144282367603</v>
       </c>
       <c r="C16">
-        <v>0.6956403290625701</v>
+        <v>0.524753576457698</v>
       </c>
       <c r="D16">
-        <v>0.1002391567771639</v>
+        <v>0.03670239639686201</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4289638494749894</v>
+        <v>0.5172183766854488</v>
       </c>
       <c r="G16">
-        <v>0.2885000227755654</v>
+        <v>0.3526911449297216</v>
       </c>
       <c r="H16">
-        <v>0.2092544636380325</v>
+        <v>0.5090436773398181</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2265775440178004</v>
+        <v>0.2867376660837238</v>
       </c>
       <c r="M16">
-        <v>0.6667569077529549</v>
+        <v>0.299388931531908</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.001244302505512</v>
+        <v>1.66019554871329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.905478275343569</v>
+        <v>1.385630783286217</v>
       </c>
       <c r="C17">
-        <v>0.6792983124209115</v>
+        <v>0.5195563313455693</v>
       </c>
       <c r="D17">
-        <v>0.09644813361074966</v>
+        <v>0.0354627478884737</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4162957433824772</v>
+        <v>0.5165799877503972</v>
       </c>
       <c r="G17">
-        <v>0.2800894433983103</v>
+        <v>0.3528584682511493</v>
       </c>
       <c r="H17">
-        <v>0.2080319827538801</v>
+        <v>0.5107739275889145</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2199981366664758</v>
+        <v>0.2859041259087718</v>
       </c>
       <c r="M17">
-        <v>0.6391115853641409</v>
+        <v>0.2912985969168815</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9806958879595982</v>
+        <v>1.664065755715427</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.80877151409419</v>
+        <v>1.355410228871051</v>
       </c>
       <c r="C18">
-        <v>0.6699266131350612</v>
+        <v>0.5165738491167815</v>
       </c>
       <c r="D18">
-        <v>0.09426840089277988</v>
+        <v>0.03474876425706697</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4091487871338799</v>
+        <v>0.516256822319157</v>
       </c>
       <c r="G18">
-        <v>0.2753842010331127</v>
+        <v>0.3529922724237906</v>
       </c>
       <c r="H18">
-        <v>0.2074039047573208</v>
+        <v>0.5118003237762991</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2162562452252246</v>
+        <v>0.2854408384610991</v>
       </c>
       <c r="M18">
-        <v>0.6232420618562742</v>
+        <v>0.2866484862379153</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9693136949486814</v>
+        <v>1.666435824467371</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.77604593337503</v>
+        <v>1.345175349599117</v>
       </c>
       <c r="C19">
-        <v>0.6667581742920277</v>
+        <v>0.5155652166644416</v>
       </c>
       <c r="D19">
-        <v>0.09353049368592536</v>
+        <v>0.03450685639115392</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4067523240974822</v>
+        <v>0.5161549595553581</v>
       </c>
       <c r="G19">
-        <v>0.2738132529188633</v>
+        <v>0.3530440201260419</v>
       </c>
       <c r="H19">
-        <v>0.2072038912324388</v>
+        <v>0.5121532016598493</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2149964208556412</v>
+        <v>0.2852867506762209</v>
       </c>
       <c r="M19">
-        <v>0.6178740510136791</v>
+        <v>0.2850746029607265</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9655331839527435</v>
+        <v>1.667263006781056</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.923385197123196</v>
+        <v>1.391222623571366</v>
       </c>
       <c r="C20">
-        <v>0.6810350432312759</v>
+        <v>0.5201088820422228</v>
       </c>
       <c r="D20">
-        <v>0.09685161109182161</v>
+        <v>0.03559481138036347</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4176297210311546</v>
+        <v>0.5166433883995936</v>
       </c>
       <c r="G20">
-        <v>0.2809709381540983</v>
+        <v>0.3528367667925991</v>
       </c>
       <c r="H20">
-        <v>0.2081542898918656</v>
+        <v>0.5105865099179852</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2206940963441468</v>
+        <v>0.2859911871629492</v>
       </c>
       <c r="M20">
-        <v>0.6420511755244291</v>
+        <v>0.2921594939842151</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9828376966232497</v>
+        <v>1.663638854647814</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.419827803982002</v>
+        <v>1.545737440592632</v>
       </c>
       <c r="C21">
-        <v>0.7293444063461152</v>
+        <v>0.53545585580639</v>
       </c>
       <c r="D21">
-        <v>0.1080206330354798</v>
+        <v>0.03923848938886465</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4558851709647342</v>
+        <v>0.5188107269444231</v>
       </c>
       <c r="G21">
-        <v>0.3066428707737572</v>
+        <v>0.3525898082712757</v>
       </c>
       <c r="H21">
-        <v>0.2122632645534281</v>
+        <v>0.5056955250986306</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2403570152032728</v>
+        <v>0.2885508063595097</v>
       </c>
       <c r="M21">
-        <v>0.7236760691054513</v>
+        <v>0.3160017877835557</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.046325832048183</v>
+        <v>1.653184436332481</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.745541593963765</v>
+        <v>1.64656439320089</v>
       </c>
       <c r="C22">
-        <v>0.7611926003083909</v>
+        <v>0.5455444735282242</v>
       </c>
       <c r="D22">
-        <v>0.1153313709577191</v>
+        <v>0.04161088236830324</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4822625230031576</v>
+        <v>0.520620257033535</v>
       </c>
       <c r="G22">
-        <v>0.3247300803021886</v>
+        <v>0.3527646437627538</v>
       </c>
       <c r="H22">
-        <v>0.2156757056683603</v>
+        <v>0.5027771020155001</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2536251062189194</v>
+        <v>0.2903672261447099</v>
       </c>
       <c r="M22">
-        <v>0.7773595379393967</v>
+        <v>0.3316110138698249</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.092108367709869</v>
+        <v>1.6476386948992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.571572429284004</v>
+        <v>1.592766197380513</v>
       </c>
       <c r="C23">
-        <v>0.744168027897814</v>
+        <v>0.5401547519941801</v>
       </c>
       <c r="D23">
-        <v>0.1114282536141218</v>
+        <v>0.04034552690524151</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4680518536939928</v>
+        <v>0.5196184616575579</v>
       </c>
       <c r="G23">
-        <v>0.3149502018111008</v>
+        <v>0.3526404816366409</v>
       </c>
       <c r="H23">
-        <v>0.2137849453815619</v>
+        <v>0.5043092586063835</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2465035012429269</v>
+        <v>0.2893846420954702</v>
       </c>
       <c r="M23">
-        <v>0.7486739063186363</v>
+        <v>0.3232777059073157</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.06726067870909</v>
+        <v>1.650480611156695</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.915289275279576</v>
+        <v>1.388694645393514</v>
       </c>
       <c r="C24">
-        <v>0.6802497941968397</v>
+        <v>0.5198590567656538</v>
       </c>
       <c r="D24">
-        <v>0.09666919966388576</v>
+        <v>0.03553510950063554</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.417026207243218</v>
+        <v>0.5166145883799871</v>
       </c>
       <c r="G24">
-        <v>0.280572010523656</v>
+        <v>0.3528464608962238</v>
       </c>
       <c r="H24">
-        <v>0.2080987626624307</v>
+        <v>0.510671142854477</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2203793266385787</v>
+        <v>0.2859517771613582</v>
       </c>
       <c r="M24">
-        <v>0.6407221122448945</v>
+        <v>0.2917702788781966</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9818680456575919</v>
+        <v>1.663831404892818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.211438391589013</v>
+        <v>1.167959147567274</v>
       </c>
       <c r="C25">
-        <v>0.6123526587718402</v>
+        <v>0.4982295753288213</v>
       </c>
       <c r="D25">
-        <v>0.08077617811135696</v>
+        <v>0.03030935974905447</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3672486255650398</v>
+        <v>0.5150566593724548</v>
       </c>
       <c r="G25">
-        <v>0.2484815209979914</v>
+        <v>0.3545037210874824</v>
       </c>
       <c r="H25">
-        <v>0.2048054865036519</v>
+        <v>0.5187262200807652</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1938015645140254</v>
+        <v>0.2828661336895308</v>
       </c>
       <c r="M25">
-        <v>0.525447577349496</v>
+        <v>0.2579091476624455</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9062524796985372</v>
+        <v>1.683736234252279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.004940474577324</v>
+        <v>2.695206907031036</v>
       </c>
       <c r="C2">
-        <v>0.4825389026844107</v>
+        <v>0.5631182183797705</v>
       </c>
       <c r="D2">
-        <v>0.02643071087631199</v>
+        <v>0.06907383987127957</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5153490970544112</v>
+        <v>0.3344585939603988</v>
       </c>
       <c r="G2">
-        <v>0.3569480634963256</v>
+        <v>0.2285004575514904</v>
       </c>
       <c r="H2">
-        <v>0.5256821673189833</v>
+        <v>0.2045361059075077</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2811251149203358</v>
+        <v>0.1754116265242871</v>
       </c>
       <c r="M2">
-        <v>0.2330888419672235</v>
+        <v>0.441277218792969</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.703102221541783</v>
+        <v>0.8627905256940949</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8941744969332603</v>
+        <v>2.345944291809417</v>
       </c>
       <c r="C3">
-        <v>0.4720568239987415</v>
+        <v>0.5301605010888579</v>
       </c>
       <c r="D3">
-        <v>0.02378328808529773</v>
+        <v>0.06113226942633787</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5164416939215926</v>
+        <v>0.3143398196862037</v>
       </c>
       <c r="G3">
-        <v>0.359363130363711</v>
+        <v>0.2169376426978644</v>
       </c>
       <c r="H3">
-        <v>0.5310352935070384</v>
+        <v>0.205566411423078</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2802765279211528</v>
+        <v>0.1635935365906604</v>
       </c>
       <c r="M3">
-        <v>0.2163400783165415</v>
+        <v>0.3845393384798683</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.719153169090816</v>
+        <v>0.8400500791557448</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8260309281195077</v>
+        <v>2.131591663845541</v>
       </c>
       <c r="C4">
-        <v>0.4656974902366073</v>
+        <v>0.5101074089853341</v>
       </c>
       <c r="D4">
-        <v>0.02214867525215425</v>
+        <v>0.05624769471929625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.517552616872706</v>
+        <v>0.3029303014800888</v>
       </c>
       <c r="G4">
-        <v>0.3612184767894604</v>
+        <v>0.2107226296627118</v>
       </c>
       <c r="H4">
-        <v>0.5346372054094033</v>
+        <v>0.2067566989974026</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2799190178454296</v>
+        <v>0.1566275646047046</v>
       </c>
       <c r="M4">
-        <v>0.2060930472340203</v>
+        <v>0.3498121285409539</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.73044817578824</v>
+        <v>0.8291204578153639</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7982303255030274</v>
+        <v>2.04423968199427</v>
       </c>
       <c r="C5">
-        <v>0.4631256482954313</v>
+        <v>0.5019792543137669</v>
       </c>
       <c r="D5">
-        <v>0.02148031582805032</v>
+        <v>0.05425467935525319</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5181158488529221</v>
+        <v>0.298504878773123</v>
       </c>
       <c r="G5">
-        <v>0.3620679796257988</v>
+        <v>0.208399544985717</v>
       </c>
       <c r="H5">
-        <v>0.536184222067476</v>
+        <v>0.2073762568460182</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2798144830987823</v>
+        <v>0.1538580385957005</v>
       </c>
       <c r="M5">
-        <v>0.2019268114732284</v>
+        <v>0.335682792021835</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.73541246270257</v>
+        <v>0.8253899868564361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.793612206135208</v>
+        <v>2.029734140002574</v>
       </c>
       <c r="C6">
-        <v>0.4626997923608087</v>
+        <v>0.5006321500728745</v>
       </c>
       <c r="D6">
-        <v>0.02136920114585905</v>
+        <v>0.05392357796589664</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5182160443390842</v>
+        <v>0.2977831979744394</v>
       </c>
       <c r="G6">
-        <v>0.3622146753341795</v>
+        <v>0.2080260920198498</v>
       </c>
       <c r="H6">
-        <v>0.5364458864375905</v>
+        <v>0.2074870953168855</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2797996117472721</v>
+        <v>0.1534022290449926</v>
       </c>
       <c r="M6">
-        <v>0.201235593561286</v>
+        <v>0.3333378207010966</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.736258595542495</v>
+        <v>0.8248131248019632</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8256561247314949</v>
+        <v>2.130413643467591</v>
       </c>
       <c r="C7">
-        <v>0.4656627254965997</v>
+        <v>0.5099976161636448</v>
       </c>
       <c r="D7">
-        <v>0.02213967054142074</v>
+        <v>0.05622082688840635</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5175597654985609</v>
+        <v>0.3028697285296644</v>
       </c>
       <c r="G7">
-        <v>0.3612295554773937</v>
+        <v>0.210690467699564</v>
       </c>
       <c r="H7">
-        <v>0.5346577483312913</v>
+        <v>0.2067645173364951</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.279917441378835</v>
+        <v>0.1565899387256664</v>
       </c>
       <c r="M7">
-        <v>0.2060368210532673</v>
+        <v>0.3496214920432976</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.730513662991228</v>
+        <v>0.8290672687834899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9667770031406349</v>
+        <v>2.574745135547232</v>
       </c>
       <c r="C8">
-        <v>0.4789089670633473</v>
+        <v>0.5517148886587506</v>
       </c>
       <c r="D8">
-        <v>0.02551978993834325</v>
+        <v>0.06633708546527828</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5156344063210483</v>
+        <v>0.3273176828448072</v>
       </c>
       <c r="G8">
-        <v>0.3577033303084605</v>
+        <v>0.2243220751867057</v>
       </c>
       <c r="H8">
-        <v>0.5274625210838906</v>
+        <v>0.2047720805817903</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2807986014307033</v>
+        <v>0.1712740984644299</v>
       </c>
       <c r="M8">
-        <v>0.227306387956375</v>
+        <v>0.4216877867596907</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.708337465146641</v>
+        <v>0.8542959004217607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.242393225368119</v>
+        <v>3.448125890955794</v>
       </c>
       <c r="C9">
-        <v>0.5054796365589311</v>
+        <v>0.6350971057168806</v>
       </c>
       <c r="D9">
-        <v>0.03207453065946453</v>
+        <v>0.08612833667431374</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5153573558636708</v>
+        <v>0.3833739897336983</v>
       </c>
       <c r="G9">
-        <v>0.3537546424750033</v>
+        <v>0.2586833772652071</v>
       </c>
       <c r="H9">
-        <v>0.515853573020074</v>
+        <v>0.2055616304866135</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.283823075510746</v>
+        <v>0.2025585022935701</v>
       </c>
       <c r="M9">
-        <v>0.2692983298655847</v>
+        <v>0.5641493542649698</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.676298025455779</v>
+        <v>0.9297002872730502</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.444134200086921</v>
+        <v>4.09302703802058</v>
       </c>
       <c r="C10">
-        <v>0.5253475363590212</v>
+        <v>0.6975089239386705</v>
       </c>
       <c r="D10">
-        <v>0.03684371631094052</v>
+        <v>0.1006718565659241</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5172971896808676</v>
+        <v>0.4304286987819097</v>
       </c>
       <c r="G10">
-        <v>0.3526771481808879</v>
+        <v>0.2894780866215569</v>
       </c>
       <c r="H10">
-        <v>0.5088504726383434</v>
+        <v>0.2094043209132508</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2868349655775688</v>
+        <v>0.2273341770439998</v>
       </c>
       <c r="M10">
-        <v>0.300312526951366</v>
+        <v>0.6699158671015581</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.659773462064067</v>
+        <v>1.00364951328109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.535734062548954</v>
+        <v>4.387590170226247</v>
       </c>
       <c r="C11">
-        <v>0.5344579474733848</v>
+        <v>0.7261984361900033</v>
       </c>
       <c r="D11">
-        <v>0.03900290146631846</v>
+        <v>0.1072963173786547</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5186473942796397</v>
+        <v>0.4533282825658063</v>
       </c>
       <c r="G11">
-        <v>0.3525862403917301</v>
+        <v>0.304905183789856</v>
       </c>
       <c r="H11">
-        <v>0.5059962482691418</v>
+        <v>0.2119555846716565</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2883765762648238</v>
+        <v>0.2390592076991851</v>
       </c>
       <c r="M11">
-        <v>0.3144552422845237</v>
+        <v>0.7183681935885176</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.653786932576452</v>
+        <v>1.041968366710279</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.570394090440459</v>
+        <v>4.499347333699518</v>
       </c>
       <c r="C12">
-        <v>0.537917923425681</v>
+        <v>0.7371093920346823</v>
       </c>
       <c r="D12">
-        <v>0.03981900429999996</v>
+        <v>0.1098067114961339</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5192261079309972</v>
+        <v>0.4622340837970569</v>
       </c>
       <c r="G12">
-        <v>0.3526094814497469</v>
+        <v>0.3109700124128096</v>
       </c>
       <c r="H12">
-        <v>0.5049631271392059</v>
+        <v>0.2130456680439607</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2889849826865003</v>
+        <v>0.2435702985229113</v>
       </c>
       <c r="M12">
-        <v>0.3198154202498245</v>
+        <v>0.7367730897372198</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.651740686057792</v>
+        <v>1.057209661898185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.562930658555047</v>
+        <v>4.475268294883733</v>
       </c>
       <c r="C13">
-        <v>0.5371723137722881</v>
+        <v>0.7347573711444966</v>
       </c>
       <c r="D13">
-        <v>0.03964331090632811</v>
+        <v>0.109265960222146</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.519098470581234</v>
+        <v>0.4603053203602911</v>
       </c>
       <c r="G13">
-        <v>0.3526019073435265</v>
+        <v>0.3096536126896012</v>
       </c>
       <c r="H13">
-        <v>0.5051835056465421</v>
+        <v>0.2128052439771722</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2888528564097754</v>
+        <v>0.2425954978002238</v>
       </c>
       <c r="M13">
-        <v>0.3186608081487847</v>
+        <v>0.7328065887661097</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.652171555250533</v>
+        <v>1.053893709024692</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.53858611322056</v>
+        <v>4.396779995734448</v>
       </c>
       <c r="C14">
-        <v>0.5347424021347251</v>
+        <v>0.7270951238654675</v>
       </c>
       <c r="D14">
-        <v>0.03907007374215254</v>
+        <v>0.107502808081918</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5186936533052631</v>
+        <v>0.4540561583207179</v>
       </c>
       <c r="G14">
-        <v>0.3525869952893856</v>
+        <v>0.3053995599696862</v>
       </c>
       <c r="H14">
-        <v>0.5059102963349176</v>
+        <v>0.2120427311911897</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2884261367260734</v>
+        <v>0.2394288791587655</v>
       </c>
       <c r="M14">
-        <v>0.3148961359822309</v>
+        <v>0.7198811819340918</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.653614159468873</v>
+        <v>1.043207285155148</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.52367082148487</v>
+        <v>4.348732583596416</v>
       </c>
       <c r="C15">
-        <v>0.5332553109918194</v>
+        <v>0.722408003046155</v>
       </c>
       <c r="D15">
-        <v>0.03871874830961985</v>
+        <v>0.1064230874352319</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5184544757750587</v>
+        <v>0.4502594665073616</v>
       </c>
       <c r="G15">
-        <v>0.352585378530236</v>
+        <v>0.3028234456688637</v>
       </c>
       <c r="H15">
-        <v>0.5063616912484719</v>
+        <v>0.2115920768986399</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2881679655769034</v>
+        <v>0.237498666778535</v>
       </c>
       <c r="M15">
-        <v>0.3125907613936718</v>
+        <v>0.7119716857155822</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.654526559276576</v>
+        <v>1.036758498829982</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.438144282367603</v>
+        <v>4.073804089773034</v>
       </c>
       <c r="C16">
-        <v>0.524753576457698</v>
+        <v>0.6956403290627691</v>
       </c>
       <c r="D16">
-        <v>0.03670239639686201</v>
+        <v>0.1002391567771639</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5172183766854488</v>
+        <v>0.4289638494750037</v>
       </c>
       <c r="G16">
-        <v>0.3526911449297216</v>
+        <v>0.288500022775608</v>
       </c>
       <c r="H16">
-        <v>0.5090436773398181</v>
+        <v>0.2092544636381461</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2867376660837238</v>
+        <v>0.2265775440176867</v>
       </c>
       <c r="M16">
-        <v>0.299388931531908</v>
+        <v>0.6667569077529478</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.66019554871329</v>
+        <v>1.001244302505512</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.385630783286217</v>
+        <v>3.905478275343569</v>
       </c>
       <c r="C17">
-        <v>0.5195563313455693</v>
+        <v>0.6792983124213379</v>
       </c>
       <c r="D17">
-        <v>0.0354627478884737</v>
+        <v>0.09644813361084204</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5165799877503972</v>
+        <v>0.4162957433824772</v>
       </c>
       <c r="G17">
-        <v>0.3528584682511493</v>
+        <v>0.2800894433983814</v>
       </c>
       <c r="H17">
-        <v>0.5107739275889145</v>
+        <v>0.2080319827538801</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2859041259087718</v>
+        <v>0.2199981366665185</v>
       </c>
       <c r="M17">
-        <v>0.2912985969168815</v>
+        <v>0.6391115853641196</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.664065755715427</v>
+        <v>0.9806958879595129</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.355410228871051</v>
+        <v>3.808771514094133</v>
       </c>
       <c r="C18">
-        <v>0.5165738491167815</v>
+        <v>0.6699266131353738</v>
       </c>
       <c r="D18">
-        <v>0.03474876425706697</v>
+        <v>0.09426840089271593</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.516256822319157</v>
+        <v>0.4091487871338586</v>
       </c>
       <c r="G18">
-        <v>0.3529922724237906</v>
+        <v>0.2753842010331482</v>
       </c>
       <c r="H18">
-        <v>0.5118003237762991</v>
+        <v>0.2074039047573208</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2854408384610991</v>
+        <v>0.2162562452252104</v>
       </c>
       <c r="M18">
-        <v>0.2866484862379153</v>
+        <v>0.62324206185626</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.666435824467371</v>
+        <v>0.9693136949486814</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.345175349599117</v>
+        <v>3.776045933374803</v>
       </c>
       <c r="C19">
-        <v>0.5155652166644416</v>
+        <v>0.6667581742919708</v>
       </c>
       <c r="D19">
-        <v>0.03450685639115392</v>
+        <v>0.09353049368554878</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5161549595553581</v>
+        <v>0.4067523240974609</v>
       </c>
       <c r="G19">
-        <v>0.3530440201260419</v>
+        <v>0.2738132529188064</v>
       </c>
       <c r="H19">
-        <v>0.5121532016598493</v>
+        <v>0.2072038912324388</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2852867506762209</v>
+        <v>0.2149964208556554</v>
       </c>
       <c r="M19">
-        <v>0.2850746029607265</v>
+        <v>0.6178740510136933</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.667263006781056</v>
+        <v>0.9655331839526866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.391222623571366</v>
+        <v>3.92338519712348</v>
       </c>
       <c r="C20">
-        <v>0.5201088820422228</v>
+        <v>0.6810350432309349</v>
       </c>
       <c r="D20">
-        <v>0.03559481138036347</v>
+        <v>0.09685161109189266</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5166433883995936</v>
+        <v>0.4176297210311617</v>
       </c>
       <c r="G20">
-        <v>0.3528367667925991</v>
+        <v>0.2809709381540415</v>
       </c>
       <c r="H20">
-        <v>0.5105865099179852</v>
+        <v>0.208154289891965</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2859911871629492</v>
+        <v>0.2206940963440758</v>
       </c>
       <c r="M20">
-        <v>0.2921594939842151</v>
+        <v>0.6420511755244362</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663638854647814</v>
+        <v>0.9828376966232497</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.545737440592632</v>
+        <v>4.4198278039824</v>
       </c>
       <c r="C21">
-        <v>0.53545585580639</v>
+        <v>0.729344406346172</v>
       </c>
       <c r="D21">
-        <v>0.03923848938886465</v>
+        <v>0.1080206330355651</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5188107269444231</v>
+        <v>0.4558851709647342</v>
       </c>
       <c r="G21">
-        <v>0.3525898082712757</v>
+        <v>0.3066428707737998</v>
       </c>
       <c r="H21">
-        <v>0.5056955250986306</v>
+        <v>0.2122632645535276</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2885508063595097</v>
+        <v>0.2403570152033438</v>
       </c>
       <c r="M21">
-        <v>0.3160017877835557</v>
+        <v>0.7236760691054727</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.653184436332481</v>
+        <v>1.046325832048154</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.64656439320089</v>
+        <v>4.745541593963878</v>
       </c>
       <c r="C22">
-        <v>0.5455444735282242</v>
+        <v>0.7611926003088172</v>
       </c>
       <c r="D22">
-        <v>0.04161088236830324</v>
+        <v>0.1153313709574917</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.520620257033535</v>
+        <v>0.4822625230031576</v>
       </c>
       <c r="G22">
-        <v>0.3527646437627538</v>
+        <v>0.3247300803021886</v>
       </c>
       <c r="H22">
-        <v>0.5027771020155001</v>
+        <v>0.2156757056683603</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2903672261447099</v>
+        <v>0.2536251062189194</v>
       </c>
       <c r="M22">
-        <v>0.3316110138698249</v>
+        <v>0.7773595379393896</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.6476386948992</v>
+        <v>1.092108367709926</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.592766197380513</v>
+        <v>4.571572429284004</v>
       </c>
       <c r="C23">
-        <v>0.5401547519941801</v>
+        <v>0.7441680278978708</v>
       </c>
       <c r="D23">
-        <v>0.04034552690524151</v>
+        <v>0.1114282536142071</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5196184616575579</v>
+        <v>0.468051853694007</v>
       </c>
       <c r="G23">
-        <v>0.3526404816366409</v>
+        <v>0.3149502018110439</v>
       </c>
       <c r="H23">
-        <v>0.5043092586063835</v>
+        <v>0.2137849453814482</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2893846420954702</v>
+        <v>0.24650350124287</v>
       </c>
       <c r="M23">
-        <v>0.3232777059073157</v>
+        <v>0.7486739063186363</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.650480611156695</v>
+        <v>1.067260678709033</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.388694645393514</v>
+        <v>3.91528927527969</v>
       </c>
       <c r="C24">
-        <v>0.5198590567656538</v>
+        <v>0.6802497941966124</v>
       </c>
       <c r="D24">
-        <v>0.03553510950063554</v>
+        <v>0.09666919966387866</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5166145883799871</v>
+        <v>0.417026207243218</v>
       </c>
       <c r="G24">
-        <v>0.3528464608962238</v>
+        <v>0.2805720105236418</v>
       </c>
       <c r="H24">
-        <v>0.510671142854477</v>
+        <v>0.208098762662317</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2859517771613582</v>
+        <v>0.2203793266385077</v>
       </c>
       <c r="M24">
-        <v>0.2917702788781966</v>
+        <v>0.6407221122449229</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.663831404892818</v>
+        <v>0.9818680456575919</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.167959147567274</v>
+        <v>3.211438391588899</v>
       </c>
       <c r="C25">
-        <v>0.4982295753288213</v>
+        <v>0.6123526587718686</v>
       </c>
       <c r="D25">
-        <v>0.03030935974905447</v>
+        <v>0.08077617811134985</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5150566593724548</v>
+        <v>0.3672486255650327</v>
       </c>
       <c r="G25">
-        <v>0.3545037210874824</v>
+        <v>0.2484815209979772</v>
       </c>
       <c r="H25">
-        <v>0.5187262200807652</v>
+        <v>0.2048054865037656</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2828661336895308</v>
+        <v>0.1938015645141107</v>
       </c>
       <c r="M25">
-        <v>0.2579091476624455</v>
+        <v>0.5254475773494889</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.683736234252279</v>
+        <v>0.9062524796985372</v>
       </c>
     </row>
   </sheetData>
